--- a/revenue-streamlit/revenue 2024 2033 simulation yearly.xlsx
+++ b/revenue-streamlit/revenue 2024 2033 simulation yearly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{BAA92C2C-EB2D-7847-8EC0-F6534D169652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D941650-452B-0E44-907F-7CBDBD8F33D7}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{BAA92C2C-EB2D-7847-8EC0-F6534D169652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61862429-7498-D14D-9840-035C0519CF0C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21500" activeTab="1" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
   </bookViews>
@@ -10065,10 +10065,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}" name="Table2" displayName="Table2" ref="B12:M23" totalsRowCount="1" headerRowDxfId="285" dataDxfId="284" totalsRowDxfId="283" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B12:M22" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}">
@@ -12457,6 +12453,62 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DDB91947-C232-1C4C-819B-643D68F76A89}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!C28:M28</xm:f>
+              <xm:sqref>N28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C29:M29</xm:f>
+              <xm:sqref>N29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C30:M30</xm:f>
+              <xm:sqref>N30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C31:M31</xm:f>
+              <xm:sqref>N31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C32:M32</xm:f>
+              <xm:sqref>N32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C33:M33</xm:f>
+              <xm:sqref>N33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C34:M34</xm:f>
+              <xm:sqref>N34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C35:M35</xm:f>
+              <xm:sqref>N35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C36:M36</xm:f>
+              <xm:sqref>N36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C37:M37</xm:f>
+              <xm:sqref>N37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C38:M38</xm:f>
+              <xm:sqref>N38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{41AC8C04-055F-BC46-990B-A8AFCC66F91D}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -12510,62 +12562,6 @@
             <x14:sparkline>
               <xm:f>Summary!C23:M23</xm:f>
               <xm:sqref>N23</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DDB91947-C232-1C4C-819B-643D68F76A89}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!C28:M28</xm:f>
-              <xm:sqref>N28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C29:M29</xm:f>
-              <xm:sqref>N29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C30:M30</xm:f>
-              <xm:sqref>N30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C31:M31</xm:f>
-              <xm:sqref>N31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C32:M32</xm:f>
-              <xm:sqref>N32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C33:M33</xm:f>
-              <xm:sqref>N33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C34:M34</xm:f>
-              <xm:sqref>N34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C35:M35</xm:f>
-              <xm:sqref>N35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C36:M36</xm:f>
-              <xm:sqref>N36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C37:M37</xm:f>
-              <xm:sqref>N37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C38:M38</xm:f>
-              <xm:sqref>N38</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -13527,6 +13523,38 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FAB1A9B4-5C50-4E42-8C73-D8DA4DBABC2E}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C15:M15</xm:f>
+              <xm:sqref>N15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C16:M16</xm:f>
+              <xm:sqref>N16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C17:M17</xm:f>
+              <xm:sqref>N17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C18:M18</xm:f>
+              <xm:sqref>N18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F5ADDBC2-ACC9-B94C-98B6-A764A5F6C6AF}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -13556,38 +13584,6 @@
             <x14:sparkline>
               <xm:f>'TE Office'!C9:M9</xm:f>
               <xm:sqref>N9</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FAB1A9B4-5C50-4E42-8C73-D8DA4DBABC2E}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C15:M15</xm:f>
-              <xm:sqref>N15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C16:M16</xm:f>
-              <xm:sqref>N16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C17:M17</xm:f>
-              <xm:sqref>N17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C18:M18</xm:f>
-              <xm:sqref>N18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -14968,7 +14964,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14979,24 +14975,56 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'TE Office Old'!C47:M47</xm:f>
+              <xm:sqref>N47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'TE Office Old'!C48:M48</xm:f>
+              <xm:sqref>N48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'TE Office Old'!C49:M49</xm:f>
+              <xm:sqref>N49</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'TE Office Old'!C50:M50</xm:f>
+              <xm:sqref>N50</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'TE Office Old'!C51:M51</xm:f>
+              <xm:sqref>N51</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{8EB3746F-C49E-704D-A70B-BBE68538AD93}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C29:M29</xm:f>
+              <xm:sqref>N29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C30:M30</xm:f>
+              <xm:sqref>N30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C31:M31</xm:f>
+              <xm:sqref>N31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C32:M32</xm:f>
+              <xm:sqref>N32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C33:M33</xm:f>
+              <xm:sqref>N33</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -15032,7 +15060,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{8EB3746F-C49E-704D-A70B-BBE68538AD93}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15043,56 +15071,24 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C29:M29</xm:f>
-              <xm:sqref>N29</xm:sqref>
+              <xm:f>'TE Office Old'!C5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C30:M30</xm:f>
-              <xm:sqref>N30</xm:sqref>
+              <xm:f>'TE Office Old'!C6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C31:M31</xm:f>
-              <xm:sqref>N31</xm:sqref>
+              <xm:f>'TE Office Old'!C7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C32:M32</xm:f>
-              <xm:sqref>N32</xm:sqref>
+              <xm:f>'TE Office Old'!C8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C33:M33</xm:f>
-              <xm:sqref>N33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C47:M47</xm:f>
-              <xm:sqref>N47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C48:M48</xm:f>
-              <xm:sqref>N48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C49:M49</xm:f>
-              <xm:sqref>N49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C50:M50</xm:f>
-              <xm:sqref>N50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C51:M51</xm:f>
-              <xm:sqref>N51</xm:sqref>
+              <xm:f>'TE Office Old'!C9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16553,6 +16549,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FF5E32F6-76BA-B445-AB9C-94E4D0BCC643}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>SH!C4:P4</xm:f>
+              <xm:sqref>Q4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{990FA0E3-C61F-6E4B-84B3-0E05946D3E2D}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -16566,22 +16578,6 @@
             <x14:sparkline>
               <xm:f>SH!C9:P9</xm:f>
               <xm:sqref>Q9</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FF5E32F6-76BA-B445-AB9C-94E4D0BCC643}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>SH!C4:P4</xm:f>
-              <xm:sqref>Q4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/revenue-streamlit/revenue 2024 2033 simulation yearly.xlsx
+++ b/revenue-streamlit/revenue 2024 2033 simulation yearly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{BAA92C2C-EB2D-7847-8EC0-F6534D169652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61862429-7498-D14D-9840-035C0519CF0C}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{BAA92C2C-EB2D-7847-8EC0-F6534D169652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A9DEE6-5855-204B-9DC0-30924E61E8A0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21500" activeTab="1" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
   </bookViews>
@@ -10065,6 +10065,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}" name="Table2" displayName="Table2" ref="B12:M23" totalsRowCount="1" headerRowDxfId="285" dataDxfId="284" totalsRowDxfId="283" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B12:M22" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}">
@@ -12453,6 +12457,62 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{41AC8C04-055F-BC46-990B-A8AFCC66F91D}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!C13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C15:M15</xm:f>
+              <xm:sqref>N15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C16:M16</xm:f>
+              <xm:sqref>N16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C17:M17</xm:f>
+              <xm:sqref>N17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C18:M18</xm:f>
+              <xm:sqref>N18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C19:M19</xm:f>
+              <xm:sqref>N19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C20:M20</xm:f>
+              <xm:sqref>N20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C21:M21</xm:f>
+              <xm:sqref>N21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C22:M22</xm:f>
+              <xm:sqref>N22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C23:M23</xm:f>
+              <xm:sqref>N23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DDB91947-C232-1C4C-819B-643D68F76A89}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -12509,62 +12569,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{41AC8C04-055F-BC46-990B-A8AFCC66F91D}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!C13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C15:M15</xm:f>
-              <xm:sqref>N15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C16:M16</xm:f>
-              <xm:sqref>N16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C17:M17</xm:f>
-              <xm:sqref>N17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C18:M18</xm:f>
-              <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C19:M19</xm:f>
-              <xm:sqref>N19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C20:M20</xm:f>
-              <xm:sqref>N20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C21:M21</xm:f>
-              <xm:sqref>N21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C22:M22</xm:f>
-              <xm:sqref>N22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C23:M23</xm:f>
-              <xm:sqref>N23</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -12943,8 +12947,8 @@
   </sheetPr>
   <dimension ref="B3:N79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13523,6 +13527,38 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F5ADDBC2-ACC9-B94C-98B6-A764A5F6C6AF}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FAB1A9B4-5C50-4E42-8C73-D8DA4DBABC2E}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -13552,38 +13588,6 @@
             <x14:sparkline>
               <xm:f>'TE Office'!C18:M18</xm:f>
               <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F5ADDBC2-ACC9-B94C-98B6-A764A5F6C6AF}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -14964,7 +14968,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14975,24 +14979,56 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C47:M47</xm:f>
-              <xm:sqref>N47</xm:sqref>
+              <xm:f>'TE Office Old'!C5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C48:M48</xm:f>
-              <xm:sqref>N48</xm:sqref>
+              <xm:f>'TE Office Old'!C6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C49:M49</xm:f>
-              <xm:sqref>N49</xm:sqref>
+              <xm:f>'TE Office Old'!C7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C50:M50</xm:f>
-              <xm:sqref>N50</xm:sqref>
+              <xm:f>'TE Office Old'!C8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C51:M51</xm:f>
-              <xm:sqref>N51</xm:sqref>
+              <xm:f>'TE Office Old'!C9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D6EB2B09-F17B-3C44-89C9-D9FDDB189892}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C20:M20</xm:f>
+              <xm:sqref>N20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C21:M21</xm:f>
+              <xm:sqref>N21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C22:M22</xm:f>
+              <xm:sqref>N22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C23:M23</xm:f>
+              <xm:sqref>N23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C24:M24</xm:f>
+              <xm:sqref>N24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -15028,7 +15064,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D6EB2B09-F17B-3C44-89C9-D9FDDB189892}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15039,56 +15075,24 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C20:M20</xm:f>
-              <xm:sqref>N20</xm:sqref>
+              <xm:f>'TE Office Old'!C47:M47</xm:f>
+              <xm:sqref>N47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C21:M21</xm:f>
-              <xm:sqref>N21</xm:sqref>
+              <xm:f>'TE Office Old'!C48:M48</xm:f>
+              <xm:sqref>N48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C22:M22</xm:f>
-              <xm:sqref>N22</xm:sqref>
+              <xm:f>'TE Office Old'!C49:M49</xm:f>
+              <xm:sqref>N49</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C23:M23</xm:f>
-              <xm:sqref>N23</xm:sqref>
+              <xm:f>'TE Office Old'!C50:M50</xm:f>
+              <xm:sqref>N50</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C24:M24</xm:f>
-              <xm:sqref>N24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'TE Office Old'!C51:M51</xm:f>
+              <xm:sqref>N51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16549,6 +16553,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{990FA0E3-C61F-6E4B-84B3-0E05946D3E2D}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>SH!C9:P9</xm:f>
+              <xm:sqref>Q9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FF5E32F6-76BA-B445-AB9C-94E4D0BCC643}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -16562,22 +16582,6 @@
             <x14:sparkline>
               <xm:f>SH!C4:P4</xm:f>
               <xm:sqref>Q4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{990FA0E3-C61F-6E4B-84B3-0E05946D3E2D}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>SH!C9:P9</xm:f>
-              <xm:sqref>Q9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
